--- a/public/files/import/bills.xlsx
+++ b/public/files/import/bills.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="10230" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7110" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bills" sheetId="1" r:id="rId1"/>
     <sheet name="bill_items" sheetId="2" r:id="rId2"/>
-    <sheet name="bill_histories" sheetId="3" r:id="rId3"/>
-    <sheet name="bill_payments" sheetId="4" r:id="rId4"/>
+    <sheet name="bill_item_taxes" sheetId="3" r:id="rId3"/>
+    <sheet name="bill_histories" sheetId="4" r:id="rId4"/>
     <sheet name="bill_totals" sheetId="5" r:id="rId5"/>
+    <sheet name="bill_transactions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>bill_number</t>
   </si>
@@ -29,7 +27,7 @@
     <t>order_number</t>
   </si>
   <si>
-    <t>bill_status_code</t>
+    <t>status</t>
   </si>
   <si>
     <t>billed_at</t>
@@ -47,127 +45,130 @@
     <t>currency_rate</t>
   </si>
   <si>
-    <t>vendor_id</t>
-  </si>
-  <si>
-    <t>vendor_name</t>
-  </si>
-  <si>
-    <t>vendor_email</t>
-  </si>
-  <si>
-    <t>vendor_tax_number</t>
-  </si>
-  <si>
-    <t>vendor_phone</t>
-  </si>
-  <si>
-    <t>vendor_address</t>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>contact_tax_number</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contact_address</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>BILL-00001</t>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>BIL-12345</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>2018-06-11 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-06-14 00:00:00</t>
+    <t>2020-01-01</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>bill_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Test Vendor</t>
+  </si>
+  <si>
+    <t>test@vendor.com</t>
+  </si>
+  <si>
+    <t>Ut.</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>empty---</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>13849 added!</t>
+  </si>
+  <si>
+    <t>$10.00 Payment</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>tax_id</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>status_code</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>BILL-00001 added!</t>
-  </si>
-  <si>
-    <t>$10.00 Payment</t>
-  </si>
-  <si>
-    <t>account_id</t>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>sub_total</t>
+  </si>
+  <si>
+    <t>bills.sub_total</t>
+  </si>
+  <si>
+    <t>bills.total</t>
   </si>
   <si>
     <t>paid_at</t>
   </si>
   <si>
+    <t>account_name</t>
+  </si>
+  <si>
     <t>payment_method</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>offlinepayment.cash.1</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>sub_total</t>
-  </si>
-  <si>
-    <t>invoices.sub_total</t>
-  </si>
-  <si>
-    <t>invoices.total</t>
+    <t>reconciled</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>offline-payments.cash.1</t>
   </si>
 </sst>
 </file>
@@ -175,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -189,29 +190,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,46 +265,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,64 +304,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,20 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,25 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +599,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,151 +631,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,34 +1137,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
-    <col min="4" max="6" width="23.4190476190476" customWidth="1"/>
-    <col min="7" max="7" width="8.14285714285714" customWidth="1"/>
-    <col min="8" max="9" width="16.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="17.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="23.4190476190476" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" customWidth="1"/>
-    <col min="15" max="15" width="19.9904761904762" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.2818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="5" width="12.8545454545455" customWidth="1"/>
+    <col min="6" max="6" width="8.13636363636364" customWidth="1"/>
+    <col min="7" max="8" width="16.4272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.2818181818182" customWidth="1"/>
+    <col min="11" max="11" width="18.7090909090909" customWidth="1"/>
+    <col min="12" max="12" width="22.2818181818182" customWidth="1"/>
+    <col min="13" max="13" width="16.4272727272727" customWidth="1"/>
+    <col min="14" max="14" width="18.7090909090909" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="8.13636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,79 +1211,71 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2">
-        <v>3</v>
+      <c r="O2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="9.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="5.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="4.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.57142857142857" customWidth="1"/>
-    <col min="9" max="9" width="8.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.7090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.5727272727273" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="4.57272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -1301,248 +1292,180 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="D2">
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
         <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.9904761904762" customWidth="1"/>
+    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="15.2818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="4" width="5.85454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="23.4190476190476" customWidth="1"/>
-    <col min="4" max="4" width="8.14285714285714" customWidth="1"/>
-    <col min="5" max="6" width="16.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="25.847619047619" customWidth="1"/>
-    <col min="9" max="9" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="4" width="17.5636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="22.2761904761905" customWidth="1"/>
-    <col min="4" max="4" width="8.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="22.2761904761905" customWidth="1"/>
+    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.7090909090909" customWidth="1"/>
+    <col min="3" max="3" width="18.7090909090909" customWidth="1"/>
+    <col min="4" max="4" width="8.13636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1550,34 +1473,126 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="5" width="16.4272727272727" customWidth="1"/>
+    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="17.2727272727273" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.1363636363636" customWidth="1"/>
+    <col min="11" max="11" width="11.7090909090909" customWidth="1"/>
+    <col min="12" max="12" width="12.8545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>